--- a/Design/数据表/其他/全局参数.xlsx
+++ b/Design/数据表/其他/全局参数.xlsx
@@ -27,18 +27,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Int1</t>
-  </si>
-  <si>
-    <t>Float1</t>
-  </si>
-  <si>
-    <t>Int2</t>
-  </si>
-  <si>
-    <t>Float2</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
@@ -94,6 +82,18 @@
   </si>
   <si>
     <t>a</t>
+  </si>
+  <si>
+    <t>Number2</t>
+  </si>
+  <si>
+    <t>Number3</t>
+  </si>
+  <si>
+    <t>Number4</t>
+  </si>
+  <si>
+    <t>Number1</t>
   </si>
 </sst>
 </file>
@@ -557,7 +557,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="84">
+  <cellStyleXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -806,6 +806,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -818,91 +821,92 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="84">
-    <cellStyle name="20% - 强调文字颜色 1 2" xfId="21" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 1 3" xfId="61" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 2 2" xfId="25" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 2 3" xfId="65" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 3 2" xfId="29" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 3 3" xfId="69" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 4 2" xfId="33" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 4 3" xfId="73" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 5 2" xfId="37" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 5 3" xfId="77" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 6 2" xfId="41" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 6 3" xfId="81" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 1 2" xfId="22" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 1 3" xfId="62" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 2 2" xfId="26" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 2 3" xfId="66" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 3 2" xfId="30" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 3 3" xfId="70" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 4 2" xfId="34" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 4 3" xfId="74" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 5 2" xfId="38" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 5 3" xfId="78" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 6 2" xfId="42" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 6 3" xfId="82" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 1 2" xfId="23" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 1 3" xfId="63" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 2 2" xfId="27" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 2 3" xfId="67" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 3 2" xfId="31" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 3 3" xfId="71" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 4 2" xfId="35" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 4 3" xfId="75" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 5 2" xfId="39" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 5 3" xfId="79" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 6 2" xfId="43" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 6 3" xfId="83" customBuiltin="1"/>
+  <cellStyles count="85">
+    <cellStyle name="20% - 强调文字颜色 1 2" xfId="21"/>
+    <cellStyle name="20% - 强调文字颜色 1 3" xfId="61"/>
+    <cellStyle name="20% - 强调文字颜色 2 2" xfId="25"/>
+    <cellStyle name="20% - 强调文字颜色 2 3" xfId="65"/>
+    <cellStyle name="20% - 强调文字颜色 3 2" xfId="29"/>
+    <cellStyle name="20% - 强调文字颜色 3 3" xfId="69"/>
+    <cellStyle name="20% - 强调文字颜色 4 2" xfId="33"/>
+    <cellStyle name="20% - 强调文字颜色 4 3" xfId="73"/>
+    <cellStyle name="20% - 强调文字颜色 5 2" xfId="37"/>
+    <cellStyle name="20% - 强调文字颜色 5 3" xfId="77"/>
+    <cellStyle name="20% - 强调文字颜色 6 2" xfId="41"/>
+    <cellStyle name="20% - 强调文字颜色 6 3" xfId="81"/>
+    <cellStyle name="40% - 强调文字颜色 1 2" xfId="22"/>
+    <cellStyle name="40% - 强调文字颜色 1 3" xfId="62"/>
+    <cellStyle name="40% - 强调文字颜色 2 2" xfId="26"/>
+    <cellStyle name="40% - 强调文字颜色 2 3" xfId="66"/>
+    <cellStyle name="40% - 强调文字颜色 3 2" xfId="30"/>
+    <cellStyle name="40% - 强调文字颜色 3 3" xfId="70"/>
+    <cellStyle name="40% - 强调文字颜色 4 2" xfId="34"/>
+    <cellStyle name="40% - 强调文字颜色 4 3" xfId="74"/>
+    <cellStyle name="40% - 强调文字颜色 5 2" xfId="38"/>
+    <cellStyle name="40% - 强调文字颜色 5 3" xfId="78"/>
+    <cellStyle name="40% - 强调文字颜色 6 2" xfId="42"/>
+    <cellStyle name="40% - 强调文字颜色 6 3" xfId="82"/>
+    <cellStyle name="60% - 强调文字颜色 1 2" xfId="23"/>
+    <cellStyle name="60% - 强调文字颜色 1 3" xfId="63"/>
+    <cellStyle name="60% - 强调文字颜色 2 2" xfId="27"/>
+    <cellStyle name="60% - 强调文字颜色 2 3" xfId="67"/>
+    <cellStyle name="60% - 强调文字颜色 3 2" xfId="31"/>
+    <cellStyle name="60% - 强调文字颜色 3 3" xfId="71"/>
+    <cellStyle name="60% - 强调文字颜色 4 2" xfId="35"/>
+    <cellStyle name="60% - 强调文字颜色 4 3" xfId="75"/>
+    <cellStyle name="60% - 强调文字颜色 5 2" xfId="39"/>
+    <cellStyle name="60% - 强调文字颜色 5 3" xfId="79"/>
+    <cellStyle name="60% - 强调文字颜色 6 2" xfId="43"/>
+    <cellStyle name="60% - 强调文字颜色 6 3" xfId="83"/>
     <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="标题 1 2" xfId="4" customBuiltin="1"/>
-    <cellStyle name="标题 1 3" xfId="44" customBuiltin="1"/>
-    <cellStyle name="标题 2 2" xfId="5" customBuiltin="1"/>
-    <cellStyle name="标题 2 3" xfId="45" customBuiltin="1"/>
-    <cellStyle name="标题 3 2" xfId="6" customBuiltin="1"/>
-    <cellStyle name="标题 3 3" xfId="46" customBuiltin="1"/>
-    <cellStyle name="标题 4 2" xfId="7" customBuiltin="1"/>
-    <cellStyle name="标题 4 3" xfId="47" customBuiltin="1"/>
-    <cellStyle name="差 2" xfId="9" customBuiltin="1"/>
-    <cellStyle name="差 3" xfId="49" customBuiltin="1"/>
+    <cellStyle name="标题 1 2" xfId="4"/>
+    <cellStyle name="标题 1 3" xfId="44"/>
+    <cellStyle name="标题 2 2" xfId="5"/>
+    <cellStyle name="标题 2 3" xfId="45"/>
+    <cellStyle name="标题 3 2" xfId="6"/>
+    <cellStyle name="标题 3 3" xfId="46"/>
+    <cellStyle name="标题 4 2" xfId="7"/>
+    <cellStyle name="标题 4 3" xfId="47"/>
+    <cellStyle name="差 2" xfId="9"/>
+    <cellStyle name="差 3" xfId="49"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="2"/>
+    <cellStyle name="常规 2 2" xfId="84"/>
     <cellStyle name="常规 3" xfId="3"/>
-    <cellStyle name="好 2" xfId="8" customBuiltin="1"/>
-    <cellStyle name="好 3" xfId="48" customBuiltin="1"/>
-    <cellStyle name="汇总 2" xfId="19" customBuiltin="1"/>
-    <cellStyle name="汇总 3" xfId="59" customBuiltin="1"/>
-    <cellStyle name="计算 2" xfId="13" customBuiltin="1"/>
-    <cellStyle name="计算 3" xfId="53" customBuiltin="1"/>
-    <cellStyle name="检查单元格 2" xfId="15" customBuiltin="1"/>
-    <cellStyle name="检查单元格 3" xfId="55" customBuiltin="1"/>
-    <cellStyle name="解释性文本 2" xfId="18" customBuiltin="1"/>
-    <cellStyle name="解释性文本 3" xfId="58" customBuiltin="1"/>
-    <cellStyle name="警告文本 2" xfId="16" customBuiltin="1"/>
-    <cellStyle name="警告文本 3" xfId="56" customBuiltin="1"/>
-    <cellStyle name="链接单元格 2" xfId="14" customBuiltin="1"/>
-    <cellStyle name="链接单元格 3" xfId="54" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 1 2" xfId="20" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 1 3" xfId="60" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 2 2" xfId="24" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 2 3" xfId="64" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 3 2" xfId="28" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 3 3" xfId="68" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 4 2" xfId="32" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 4 3" xfId="72" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 5 2" xfId="36" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 5 3" xfId="76" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 6 2" xfId="40" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 6 3" xfId="80" customBuiltin="1"/>
-    <cellStyle name="适中 2" xfId="10" customBuiltin="1"/>
-    <cellStyle name="适中 3" xfId="50" customBuiltin="1"/>
-    <cellStyle name="输出 2" xfId="12" customBuiltin="1"/>
-    <cellStyle name="输出 3" xfId="52" customBuiltin="1"/>
-    <cellStyle name="输入 2" xfId="11" customBuiltin="1"/>
-    <cellStyle name="输入 3" xfId="51" customBuiltin="1"/>
-    <cellStyle name="注释 2" xfId="17" customBuiltin="1"/>
-    <cellStyle name="注释 3" xfId="57" customBuiltin="1"/>
+    <cellStyle name="好 2" xfId="8"/>
+    <cellStyle name="好 3" xfId="48"/>
+    <cellStyle name="汇总 2" xfId="19"/>
+    <cellStyle name="汇总 3" xfId="59"/>
+    <cellStyle name="计算 2" xfId="13"/>
+    <cellStyle name="计算 3" xfId="53"/>
+    <cellStyle name="检查单元格 2" xfId="15"/>
+    <cellStyle name="检查单元格 3" xfId="55"/>
+    <cellStyle name="解释性文本 2" xfId="18"/>
+    <cellStyle name="解释性文本 3" xfId="58"/>
+    <cellStyle name="警告文本 2" xfId="16"/>
+    <cellStyle name="警告文本 3" xfId="56"/>
+    <cellStyle name="链接单元格 2" xfId="14"/>
+    <cellStyle name="链接单元格 3" xfId="54"/>
+    <cellStyle name="强调文字颜色 1 2" xfId="20"/>
+    <cellStyle name="强调文字颜色 1 3" xfId="60"/>
+    <cellStyle name="强调文字颜色 2 2" xfId="24"/>
+    <cellStyle name="强调文字颜色 2 3" xfId="64"/>
+    <cellStyle name="强调文字颜色 3 2" xfId="28"/>
+    <cellStyle name="强调文字颜色 3 3" xfId="68"/>
+    <cellStyle name="强调文字颜色 4 2" xfId="32"/>
+    <cellStyle name="强调文字颜色 4 3" xfId="72"/>
+    <cellStyle name="强调文字颜色 5 2" xfId="36"/>
+    <cellStyle name="强调文字颜色 5 3" xfId="76"/>
+    <cellStyle name="强调文字颜色 6 2" xfId="40"/>
+    <cellStyle name="强调文字颜色 6 3" xfId="80"/>
+    <cellStyle name="适中 2" xfId="10"/>
+    <cellStyle name="适中 3" xfId="50"/>
+    <cellStyle name="输出 2" xfId="12"/>
+    <cellStyle name="输出 3" xfId="52"/>
+    <cellStyle name="输入 2" xfId="11"/>
+    <cellStyle name="输入 3" xfId="51"/>
+    <cellStyle name="注释 2" xfId="17"/>
+    <cellStyle name="注释 3" xfId="57"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1197,7 +1201,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection sqref="A1:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1210,42 +1214,42 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1256,19 +1260,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1276,7 +1280,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -1289,7 +1293,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -1302,7 +1306,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -1315,7 +1319,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -1328,7 +1332,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
@@ -1343,7 +1347,7 @@
         <v>4</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1351,7 +1355,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -1364,7 +1368,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -1377,7 +1381,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -1390,7 +1394,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -1403,7 +1407,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
